--- a/xlsx/缅因州_intext.xlsx
+++ b/xlsx/缅因州_intext.xlsx
@@ -15,1179 +15,1185 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="393">
   <si>
     <t>缅因州</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E5%9B%A0%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_缅因州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E5%9B%A0%E5%B7%9E%E5%B7%9E%E6%97%97</t>
+  </si>
+  <si>
+    <t>缅因州州旗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%98%B5%E7%A7%B0%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州昵称列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%A6%96%E5%BA%9C%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州首府列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%8F%A4%E6%96%AF%E5%A1%94_(%E7%BC%85%E5%9B%A0%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>奥古斯塔 (缅因州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%89%B9%E8%98%AD_(%E7%B7%AC%E5%9B%A0%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>波特兰 (缅因州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%9D%A2%E7%A7%AF%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州面积列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州人口列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国州份人口密度列表</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_U.S._states_by_elevation</t>
+  </si>
+  <si>
+    <t>en-List of U.S. states by elevation</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD%E4%BE%9D%E5%8A%A0%E5%85%A5%E8%81%94%E9%82%A6%E9%A1%BA%E5%BA%8F%E6%8E%92%E5%88%97%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国州份依加入联邦顺序排列列表</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_Governors_of_Maine</t>
+  </si>
+  <si>
+    <t>en-List of Governors of Maine</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E5%8B%92%E4%BD%A9%E5%90%89</t>
+  </si>
+  <si>
+    <t>保罗·勒佩吉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
+  </si>
+  <si>
+    <t>共和党 (美国)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
+  </si>
+  <si>
+    <t>立法机构</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_United_States_Senators_from_Maine</t>
+  </si>
+  <si>
+    <t>en-List of United States Senators from Maine</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E7%8F%8A%C2%B7%E6%9F%AF%E7%90%B3%E7%B5%B2</t>
+  </si>
+  <si>
+    <t>苏珊·柯琳丝</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%A0%BC%E6%96%AF%C2%B7%E9%87%91</t>
+  </si>
+  <si>
+    <t>安格斯·金</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E9%BB%A8%E7%B1%8D</t>
+  </si>
+  <si>
+    <t>无党籍</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
+  </si>
+  <si>
+    <t>美国众议院</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/United_States_congressional_delegations_from_Maine</t>
+  </si>
+  <si>
+    <t>en-United States congressional delegations from Maine</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%97%B6%E5%8C%BA%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州时区列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E4%B8%9C%E9%83%A8%E6%97%B6%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>北美东部时区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/UTC-5</t>
+  </si>
+  <si>
+    <t>UTC-5</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/UTC-4</t>
+  </si>
+  <si>
+    <t>UTC-4</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>美国各州缩写列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/ISO_3166-2:US</t>
+  </si>
+  <si>
+    <t>ISO 3166-2-US</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9D%B1%E5%8C%97%E9%83%A8</t>
+  </si>
+  <si>
+    <t>美国东北部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
+  </si>
+  <si>
+    <t>新英格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
+  </si>
+  <si>
+    <t>加拿大</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AD%81%E5%8C%97%E5%85%8B%E7%9C%81</t>
+  </si>
+  <si>
+    <t>魁北克省</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E4%B8%8D%E5%80%AB%E7%91%9E%E5%85%8B%E7%9C%81</t>
+  </si>
+  <si>
+    <t>新不伦瑞克省</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A5%BF%E6%B4%8B</t>
+  </si>
+  <si>
+    <t>大西洋</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%BD%95%E5%B8%83%E4%BB%80%E7%88%BE%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>新罕布什尔州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E9%AE%AE</t>
+  </si>
+  <si>
+    <t>海鲜</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BE%8D%E8%9D%A6</t>
+  </si>
+  <si>
+    <t>龙虾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%9B%A4%E8%9C%8A</t>
+  </si>
+  <si>
+    <t>蛤蜊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E6%81%A9_(%E8%A1%8C%E7%9C%81)</t>
+  </si>
+  <si>
+    <t>曼恩 (行省)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E5%9B%A0%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>缅因州行政区划</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_Maine_rivers</t>
+  </si>
+  <si>
+    <t>en-List of Maine rivers</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_lakes_in_Maine</t>
+  </si>
+  <si>
+    <t>en-List of lakes in Maine</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Geology_of_New_England</t>
+  </si>
+  <si>
+    <t>en-Geology of New England</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>密西西比河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%86%88%E6%98%86%E8%AF%AD%E6%97%8F</t>
+  </si>
+  <si>
+    <t>阿尔冈昆语族</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Wabanaki_Confederacy</t>
+  </si>
+  <si>
+    <t>en-Wabanaki Confederacy</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E7%81%A3%E6%AE%96%E6%B0%91%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>麻萨诸塞湾殖民地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>麻萨诸塞州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%8B%8F%E9%87%8C%E5%A6%A5%E5%8D%8F%E6%A1%88</t>
+  </si>
+  <si>
+    <t>密苏里妥协案</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>密苏里州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E5%8C%97%E7%BE%8E</t>
+  </si>
+  <si>
+    <t>英属北美</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Aroostook_War</t>
+  </si>
+  <si>
+    <t>en-Aroostook War</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Webster%E2%80%93Ashburton_Treaty</t>
+  </si>
+  <si>
+    <t>en-Webster–Ashburton Treaty</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1890%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
+  </si>
+  <si>
+    <t>美国1890年人口普查</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1900%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
+  </si>
+  <si>
+    <t>美国1900年人口普查</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1910%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
+  </si>
+  <si>
+    <t>美国1910年人口普查</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1920%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
+  </si>
+  <si>
+    <t>美国1920年人口普查</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1930%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
+  </si>
+  <si>
+    <t>美国1930年人口普查</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1940%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
+  </si>
+  <si>
+    <t>美国1940年人口普查</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1950%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
+  </si>
+  <si>
+    <t>美国1950年人口普查</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1960%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
+  </si>
+  <si>
+    <t>美国1960年人口普查</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1970%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
+  </si>
+  <si>
+    <t>美国1970年人口普查</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1980%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
+  </si>
+  <si>
+    <t>美国1980年人口普查</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1990%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
+  </si>
+  <si>
+    <t>美国1990年人口普查</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B2000%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
+  </si>
+  <si>
+    <t>美国2000年人口普查</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B2010%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
+  </si>
+  <si>
+    <t>美国2010年人口普查</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%97%8F</t>
+  </si>
+  <si>
+    <t>种族</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E6%B3%95%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>美国的法语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E5%AE%97%E6%95%99</t>
+  </si>
+  <si>
+    <t>基督宗教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%95%99</t>
+  </si>
+  <si>
+    <t>新教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99</t>
+  </si>
+  <si>
+    <t>天主教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E8%8E%93</t>
+  </si>
+  <si>
+    <t>蓝莓</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E8%9E%AF%E8%9D%A6</t>
+  </si>
+  <si>
+    <t>海螯虾</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BB%99%E7%AB%A5%E5%8D%8A%E5%B0%8E%E9%AB%94%E5%85%AC%E5%8F%B8</t>
+  </si>
+  <si>
+    <t>仙童半导体公司</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8F%AD%E6%88%88_(%E7%BC%85%E5%9B%A0%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>班戈 (缅因州)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Constitution_of_Maine</t>
+  </si>
+  <si>
+    <t>en-Constitution of Maine</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E5%9B%A0%E5%B7%9E%E8%AE%AE%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>缅因州议会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E5%9B%A0%E5%B7%9E%E5%8F%82%E8%AE%AE%E9%99%A2</t>
+  </si>
+  <si>
+    <t>缅因州参议院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E5%9B%A0%E5%B7%9E%E4%BC%97%E8%AE%AE%E9%99%A2</t>
+  </si>
+  <si>
+    <t>缅因州众议院</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Governor_of_Maine</t>
+  </si>
+  <si>
+    <t>en-Governor of Maine</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Maine_Supreme_Judicial_Court</t>
+  </si>
+  <si>
+    <t>en-Maine Supreme Judicial Court</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%85%B1%E5%92%8C%E9%BB%A8</t>
+  </si>
+  <si>
+    <t>美国共和党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B0%91%E4%B8%BB%E5%85%9A</t>
+  </si>
+  <si>
+    <t>美国民主党</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%96%AF%C2%B7%E4%BD%A9%E7%BD%97</t>
+  </si>
+  <si>
+    <t>罗斯·佩罗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%94%90%E7%B4%8D%C2%B7%E5%B7%9D%E6%99%AE</t>
+  </si>
+  <si>
+    <t>唐纳·川普</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%80%89%E4%B8%BE%E4%BA%BA%E5%9B%A2</t>
+  </si>
+  <si>
+    <t>美国选举人团</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0</t>
+  </si>
+  <si>
+    <t>内布拉斯加</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9C%AC_(%E7%B7%AC%E5%9B%A0%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>奥本 (缅因州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E7%BA%B3%E9%82%A6%E5%85%8B%E6%B3%A2%E7%89%B9_(%E7%BC%85%E5%9B%A0%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>肯纳邦克波特 (缅因州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%98%E6%98%93%E6%96%AF%E9%A1%BF_(%E7%BC%85%E5%9B%A0%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>刘易斯顿 (缅因州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E5%9B%A0%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>缅因大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%B3%A2%E7%89%B9%E5%85%B0_(%E7%BC%85%E5%9B%A0%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>南波特兰 (缅因州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%85%B9%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>贝兹学院</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%B2%8D%E7%99%BB%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>鲍登大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%B0%94%E6%AF%94%E5%AD%A6%E9%99%A2</t>
+  </si>
+  <si>
+    <t>科尔比学院</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/College_of_the_Atlantic</t>
+  </si>
+  <si>
+    <t>en-College of the Atlantic</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Husson_College</t>
+  </si>
+  <si>
+    <t>en-Husson College</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/St._Joseph%27s_College_of_Maine</t>
+  </si>
+  <si>
+    <t>en-St. Joseph's College of Maine</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Thomas_College</t>
+  </si>
+  <si>
+    <t>en-Thomas College</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Unity_College_(Maine)</t>
+  </si>
+  <si>
+    <t>en-Unity College (Maine)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Westbrook_College</t>
+  </si>
+  <si>
+    <t>en-Westbrook College</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD%E5%A4%A7%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>新英格兰大学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BC%85%E5%9B%A0%E5%B7%9E%E5%A4%A7%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>南缅因州大学</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Maine_Maritime_Academy</t>
+  </si>
+  <si>
+    <t>en-Maine Maritime Academy</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E5%B0%BC%E5%B7%B4%E5%B0%94%C2%B7%E5%93%88%E5%A7%86%E6%9E%97</t>
+  </si>
+  <si>
+    <t>汉尼巴尔·哈姆林</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%89%B9%C2%B7M%C2%B7%E8%8E%AB%E9%87%8C%E5%B0%94</t>
+  </si>
+  <si>
+    <t>洛特·M·莫里尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%B7%B4%E7%88%BE%E9%81%94%E9%BD%8A</t>
+  </si>
+  <si>
+    <t>约翰·巴尔达齐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9E%97%E5%8C%B9%E4%BA%9E%C2%B7%E5%8F%B2%E8%AB%BE</t>
+  </si>
+  <si>
+    <t>奥林匹亚·史诺</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Dorothea_Dix</t>
+  </si>
+  <si>
+    <t>en-Dorothea Dix</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E7%A6%8F%E7%89%B9</t>
+  </si>
+  <si>
+    <t>约翰·福特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%92%82%E8%8A%AC%C2%B7%E9%87%91</t>
+  </si>
+  <si>
+    <t>史蒂芬·金</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E6%B2%83%E8%8C%B2%E6%B2%83%E6%80%9D%C2%B7%E6%9C%97%E8%B2%BB%E7%BE%85</t>
+  </si>
+  <si>
+    <t>亨利·沃兹沃思·朗费罗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%BE%B7%E5%A8%9C%C2%B7%E8%81%96%E6%96%87%E6%A3%AE%E7%89%B9%C2%B7%E7%B1%B3%E8%90%8A</t>
+  </si>
+  <si>
+    <t>埃德娜·圣文森特·米莱</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E9%AD%AF%C2%B7%E9%AD%8F%E6%96%AF</t>
+  </si>
+  <si>
+    <t>安德鲁·魏斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%A8%9C%C2%B7%E5%9D%8E%E5%8D%93%E5%85%8B</t>
+  </si>
+  <si>
+    <t>安娜·坎卓克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%81%AF%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>小联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/MLB</t>
+  </si>
+  <si>
+    <t>MLB</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93%E7%B4%85%E8%A5%AA</t>
+  </si>
+  <si>
+    <t>波士顿红袜</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/NCAA</t>
+  </si>
+  <si>
+    <t>NCAA</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/95%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
+  </si>
+  <si>
+    <t>95号州际公路</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
+  </si>
+  <si>
+    <t>Template talk-美国行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
+  </si>
+  <si>
+    <t>美国行政区划</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
+  </si>
+  <si>
+    <t>美国州份</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>亚拉巴马州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>阿拉斯加州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>亚利桑那州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>阿肯色州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>加利福尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>科罗拉多州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>康乃狄克州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%8B%89%E5%8D%8E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>特拉华州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>佛罗里达州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>乔治亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>夏威夷州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E8%BE%BE%E8%8D%B7%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>爱达荷州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>伊利诺伊州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%BA%B3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>印第安纳州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%A5%A5%E7%93%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>艾奥瓦州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>堪萨斯州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>肯塔基州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>路易斯安那州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C%E5%85%B0%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>马里兰州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>密歇根州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>明尼苏达州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>密西西比州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>蒙大拿州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>内华达州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%BD%95%E5%B8%83%E4%BB%80%E5%B0%94%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B3%BD%E8%A5%BF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>新泽西州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>新墨西哥州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>纽约州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>北卡罗来纳州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%BE%BE%E7%A7%91%E4%BB%96%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>北达科他州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>俄亥俄州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>奥克拉荷马州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>俄勒冈州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>宾夕法尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>罗德岛州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>南卡罗来纳州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%BE%BE%E7%A7%91%E4%BB%96%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>南达科他州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%BA%B3%E8%A5%BF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>田纳西州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>德克萨斯州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E4%BB%96%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>犹他州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E8%92%99%E7%89%B9%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>佛蒙特州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>弗吉尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>华盛顿州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>西维吉尼亚州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>威斯康辛州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%80%80%E4%BF%84%E6%98%8E%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>怀俄明州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
+  </si>
+  <si>
+    <t>联邦地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
+  </si>
+  <si>
+    <t>华盛顿哥伦比亚特区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
+  </si>
+  <si>
+    <t>岛屿地区</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>美属萨摩亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>关岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>北马里亚纳群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84</t>
+  </si>
+  <si>
+    <t>波多黎各</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>美属维尔京群岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B2%9B%E5%B1%BF</t>
+  </si>
+  <si>
+    <t>美国本土外小岛屿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>威克岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
+  </si>
+  <si>
+    <t>约翰斯顿环礁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>中途岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
+  </si>
+  <si>
+    <t>金曼礁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
+  </si>
+  <si>
+    <t>帕迈拉环礁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>贾维斯岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>贝克岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>豪兰岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E8%90%A8%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>纳瓦萨岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%9C%8D%E5%8A%AA%E5%9F%83%E6%B2%83%E6%B5%85%E6%BB%A9</t>
+  </si>
+  <si>
+    <t>巴霍努埃沃浅滩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E5%B0%BC%E6%8B%89%E6%B5%85%E6%BB%A9</t>
+  </si>
+  <si>
+    <t>塞拉尼拉浅滩</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BF%9D%E7%95%99%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>印第安保留地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
+  </si>
+  <si>
+    <t>权威控制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>虚拟国际规范文档</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
+  </si>
+  <si>
+    <t>美国国会图书馆控制号</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
+  </si>
+  <si>
+    <t>国际标准名称识别码</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>整合规范文档</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E5%9B%A0%E5%B7%9E</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_加州_缅因州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E5%9B%A0%E5%B7%9E%E5%B7%9E%E6%97%97</t>
-  </si>
-  <si>
-    <t>缅因州州旗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%98%B5%E7%A7%B0%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国各州昵称列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%A6%96%E5%BA%9C%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国各州首府列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%8F%A4%E6%96%AF%E5%A1%94_(%E7%BC%85%E5%9B%A0%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>奥古斯塔 (缅因州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%89%B9%E8%98%AD_(%E7%B7%AC%E5%9B%A0%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>波特蘭 (緬因州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%9D%A2%E7%A7%AF%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国各州面积列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国各州人口列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国州份人口密度列表</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_U.S._states_by_elevation</t>
-  </si>
-  <si>
-    <t>en-List of U.S. states by elevation</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD%E4%BE%9D%E5%8A%A0%E5%85%A5%E8%81%94%E9%82%A6%E9%A1%BA%E5%BA%8F%E6%8E%92%E5%88%97%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国州份依加入联邦顺序排列列表</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_Governors_of_Maine</t>
-  </si>
-  <si>
-    <t>en-List of Governors of Maine</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E5%8B%92%E4%BD%A9%E5%90%89</t>
-  </si>
-  <si>
-    <t>保羅·勒佩吉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
-  </si>
-  <si>
-    <t>共和黨 (美國)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
-  </si>
-  <si>
-    <t>立法机构</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_United_States_Senators_from_Maine</t>
-  </si>
-  <si>
-    <t>en-List of United States Senators from Maine</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E7%8F%8A%C2%B7%E6%9F%AF%E7%90%B3%E7%B5%B2</t>
-  </si>
-  <si>
-    <t>蘇珊·柯琳絲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%A0%BC%E6%96%AF%C2%B7%E9%87%91</t>
-  </si>
-  <si>
-    <t>安格斯·金</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E9%BB%A8%E7%B1%8D</t>
-  </si>
-  <si>
-    <t>無黨籍</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
-  </si>
-  <si>
-    <t>美国众议院</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/United_States_congressional_delegations_from_Maine</t>
-  </si>
-  <si>
-    <t>en-United States congressional delegations from Maine</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%97%B6%E5%8C%BA%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美国各州时区列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E4%B8%9C%E9%83%A8%E6%97%B6%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>北美东部时区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/UTC-5</t>
-  </si>
-  <si>
-    <t>UTC-5</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/UTC-4</t>
-  </si>
-  <si>
-    <t>UTC-4</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>美國各州縮寫列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/ISO_3166-2:US</t>
-  </si>
-  <si>
-    <t>ISO 3166-2-US</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9D%B1%E5%8C%97%E9%83%A8</t>
-  </si>
-  <si>
-    <t>美國東北部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
-  </si>
-  <si>
-    <t>新英格蘭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
-  </si>
-  <si>
-    <t>加拿大</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AD%81%E5%8C%97%E5%85%8B%E7%9C%81</t>
-  </si>
-  <si>
-    <t>魁北克省</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E4%B8%8D%E5%80%AB%E7%91%9E%E5%85%8B%E7%9C%81</t>
-  </si>
-  <si>
-    <t>新不倫瑞克省</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A5%BF%E6%B4%8B</t>
-  </si>
-  <si>
-    <t>大西洋</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%BD%95%E5%B8%83%E4%BB%80%E7%88%BE%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>新罕布什爾州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E9%AE%AE</t>
-  </si>
-  <si>
-    <t>海鮮</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BE%8D%E8%9D%A6</t>
-  </si>
-  <si>
-    <t>龍蝦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%9B%A4%E8%9C%8A</t>
-  </si>
-  <si>
-    <t>蛤蜊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E6%81%A9_(%E8%A1%8C%E7%9C%81)</t>
-  </si>
-  <si>
-    <t>曼恩 (行省)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E5%9B%A0%E5%B7%9E%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>缅因州行政区划</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_Maine_rivers</t>
-  </si>
-  <si>
-    <t>en-List of Maine rivers</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/List_of_lakes_in_Maine</t>
-  </si>
-  <si>
-    <t>en-List of lakes in Maine</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Geology_of_New_England</t>
-  </si>
-  <si>
-    <t>en-Geology of New England</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>密西西比河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%86%88%E6%98%86%E8%AF%AD%E6%97%8F</t>
-  </si>
-  <si>
-    <t>阿尔冈昆语族</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Wabanaki_Confederacy</t>
-  </si>
-  <si>
-    <t>en-Wabanaki Confederacy</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E7%81%A3%E6%AE%96%E6%B0%91%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>麻薩諸塞灣殖民地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>麻薩諸塞州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%8B%8F%E9%87%8C%E5%A6%A5%E5%8D%8F%E6%A1%88</t>
-  </si>
-  <si>
-    <t>密苏里妥协案</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>密蘇里州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E5%8C%97%E7%BE%8E</t>
-  </si>
-  <si>
-    <t>英屬北美</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Aroostook_War</t>
-  </si>
-  <si>
-    <t>en-Aroostook War</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Webster%E2%80%93Ashburton_Treaty</t>
-  </si>
-  <si>
-    <t>en-Webster–Ashburton Treaty</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1890%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
-  </si>
-  <si>
-    <t>美國1890年人口普查</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1900%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
-  </si>
-  <si>
-    <t>美國1900年人口普查</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1910%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
-  </si>
-  <si>
-    <t>美國1910年人口普查</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1920%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
-  </si>
-  <si>
-    <t>美國1920年人口普查</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1930%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
-  </si>
-  <si>
-    <t>美國1930年人口普查</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1940%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
-  </si>
-  <si>
-    <t>美國1940年人口普查</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1950%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
-  </si>
-  <si>
-    <t>美國1950年人口普查</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1960%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
-  </si>
-  <si>
-    <t>美國1960年人口普查</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1970%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
-  </si>
-  <si>
-    <t>美國1970年人口普查</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1980%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
-  </si>
-  <si>
-    <t>美國1980年人口普查</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1990%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
-  </si>
-  <si>
-    <t>美國1990年人口普查</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B2000%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
-  </si>
-  <si>
-    <t>美國2000年人口普查</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B2010%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
-  </si>
-  <si>
-    <t>美國2010年人口普查</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%97%8F</t>
-  </si>
-  <si>
-    <t>種族</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E6%B3%95%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>美國的法語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E5%AE%97%E6%95%99</t>
-  </si>
-  <si>
-    <t>基督宗教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%95%99</t>
-  </si>
-  <si>
-    <t>新教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99</t>
-  </si>
-  <si>
-    <t>天主教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E8%8E%93</t>
-  </si>
-  <si>
-    <t>藍莓</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E8%9E%AF%E8%9D%A6</t>
-  </si>
-  <si>
-    <t>海螯蝦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%99%E7%AB%A5%E5%8D%8A%E5%B0%8E%E9%AB%94%E5%85%AC%E5%8F%B8</t>
-  </si>
-  <si>
-    <t>仙童半導體公司</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8F%AD%E6%88%88_(%E7%BC%85%E5%9B%A0%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>班戈 (缅因州)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Constitution_of_Maine</t>
-  </si>
-  <si>
-    <t>en-Constitution of Maine</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E5%9B%A0%E5%B7%9E%E8%AE%AE%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>缅因州议会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E5%9B%A0%E5%B7%9E%E5%8F%82%E8%AE%AE%E9%99%A2</t>
-  </si>
-  <si>
-    <t>缅因州参议院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E5%9B%A0%E5%B7%9E%E4%BC%97%E8%AE%AE%E9%99%A2</t>
-  </si>
-  <si>
-    <t>缅因州众议院</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Governor_of_Maine</t>
-  </si>
-  <si>
-    <t>en-Governor of Maine</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Maine_Supreme_Judicial_Court</t>
-  </si>
-  <si>
-    <t>en-Maine Supreme Judicial Court</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%85%B1%E5%92%8C%E9%BB%A8</t>
-  </si>
-  <si>
-    <t>美國共和黨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B0%91%E4%B8%BB%E5%85%9A</t>
-  </si>
-  <si>
-    <t>美国民主党</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%96%AF%C2%B7%E4%BD%A9%E7%BD%97</t>
-  </si>
-  <si>
-    <t>罗斯·佩罗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%94%90%E7%B4%8D%C2%B7%E5%B7%9D%E6%99%AE</t>
-  </si>
-  <si>
-    <t>唐納·川普</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%80%89%E4%B8%BE%E4%BA%BA%E5%9B%A2</t>
-  </si>
-  <si>
-    <t>美国选举人团</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0</t>
-  </si>
-  <si>
-    <t>內布拉斯加</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9C%AC_(%E7%B7%AC%E5%9B%A0%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>奧本 (緬因州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E7%BA%B3%E9%82%A6%E5%85%8B%E6%B3%A2%E7%89%B9_(%E7%BC%85%E5%9B%A0%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>肯纳邦克波特 (缅因州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%98%E6%98%93%E6%96%AF%E9%A1%BF_(%E7%BC%85%E5%9B%A0%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>刘易斯顿 (缅因州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E5%9B%A0%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>缅因大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%B3%A2%E7%89%B9%E5%85%B0_(%E7%BC%85%E5%9B%A0%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>南波特兰 (缅因州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%85%B9%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>贝兹学院</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%B2%8D%E7%99%BB%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>鲍登大学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%B0%94%E6%AF%94%E5%AD%A6%E9%99%A2</t>
-  </si>
-  <si>
-    <t>科尔比学院</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/College_of_the_Atlantic</t>
-  </si>
-  <si>
-    <t>en-College of the Atlantic</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Husson_College</t>
-  </si>
-  <si>
-    <t>en-Husson College</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/St._Joseph%27s_College_of_Maine</t>
-  </si>
-  <si>
-    <t>en-St. Joseph's College of Maine</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Thomas_College</t>
-  </si>
-  <si>
-    <t>en-Thomas College</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Unity_College_(Maine)</t>
-  </si>
-  <si>
-    <t>en-Unity College (Maine)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Westbrook_College</t>
-  </si>
-  <si>
-    <t>en-Westbrook College</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD%E5%A4%A7%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>新英格蘭大學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BC%85%E5%9B%A0%E5%B7%9E%E5%A4%A7%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>南缅因州大学</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Maine_Maritime_Academy</t>
-  </si>
-  <si>
-    <t>en-Maine Maritime Academy</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E5%B0%BC%E5%B7%B4%E5%B0%94%C2%B7%E5%93%88%E5%A7%86%E6%9E%97</t>
-  </si>
-  <si>
-    <t>汉尼巴尔·哈姆林</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%89%B9%C2%B7M%C2%B7%E8%8E%AB%E9%87%8C%E5%B0%94</t>
-  </si>
-  <si>
-    <t>洛特·M·莫里尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%B7%B4%E7%88%BE%E9%81%94%E9%BD%8A</t>
-  </si>
-  <si>
-    <t>約翰·巴爾達齊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9E%97%E5%8C%B9%E4%BA%9E%C2%B7%E5%8F%B2%E8%AB%BE</t>
-  </si>
-  <si>
-    <t>奧林匹亞·史諾</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Dorothea_Dix</t>
-  </si>
-  <si>
-    <t>en-Dorothea Dix</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E7%A6%8F%E7%89%B9</t>
-  </si>
-  <si>
-    <t>约翰·福特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%92%82%E8%8A%AC%C2%B7%E9%87%91</t>
-  </si>
-  <si>
-    <t>史蒂芬·金</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E6%B2%83%E8%8C%B2%E6%B2%83%E6%80%9D%C2%B7%E6%9C%97%E8%B2%BB%E7%BE%85</t>
-  </si>
-  <si>
-    <t>亨利·沃茲沃思·朗費羅</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%BE%B7%E5%A8%9C%C2%B7%E8%81%96%E6%96%87%E6%A3%AE%E7%89%B9%C2%B7%E7%B1%B3%E8%90%8A</t>
-  </si>
-  <si>
-    <t>埃德娜·聖文森特·米萊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E9%AD%AF%C2%B7%E9%AD%8F%E6%96%AF</t>
-  </si>
-  <si>
-    <t>安德魯·魏斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%A8%9C%C2%B7%E5%9D%8E%E5%8D%93%E5%85%8B</t>
-  </si>
-  <si>
-    <t>安娜·坎卓克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%81%AF%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>小聯盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/MLB</t>
-  </si>
-  <si>
-    <t>MLB</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93%E7%B4%85%E8%A5%AA</t>
-  </si>
-  <si>
-    <t>波士頓紅襪</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/NCAA</t>
-  </si>
-  <si>
-    <t>NCAA</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/95%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
-  </si>
-  <si>
-    <t>95號州際公路</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
-  </si>
-  <si>
-    <t>Template talk-美国行政区划</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
-  </si>
-  <si>
-    <t>美國行政區劃</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
-  </si>
-  <si>
-    <t>美国州份</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>亚拉巴马州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>阿拉斯加州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>亞利桑那州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>阿肯色州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>加利福尼亚州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>科羅拉多州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>康乃狄克州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%8B%89%E5%8D%8E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>特拉华州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BD%97%E9%87%8C%E8%BE%BE%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>佛罗里达州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>喬治亞州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>夏威夷州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E8%BE%BE%E8%8D%B7%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>爱达荷州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>伊利诺伊州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%BA%B3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>印第安纳州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%A5%A5%E7%93%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>艾奥瓦州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>堪薩斯州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>肯塔基州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>路易斯安那州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C%E5%85%B0%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>马里兰州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>密歇根州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>明尼蘇達州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>密西西比州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>蒙大拿州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>内华达州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%BD%95%E5%B8%83%E4%BB%80%E5%B0%94%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>新罕布什尔州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B3%BD%E8%A5%BF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>新泽西州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>新墨西哥州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>纽约州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>北卡罗来纳州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%BE%BE%E7%A7%91%E4%BB%96%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>北达科他州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>俄亥俄州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>奧克拉荷馬州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>俄勒冈州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>宾夕法尼亚州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>羅德島州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>南卡罗来纳州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%BE%BE%E7%A7%91%E4%BB%96%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>南达科他州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%BA%B3%E8%A5%BF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>田纳西州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>德克萨斯州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8A%B9%E4%BB%96%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>犹他州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E8%92%99%E7%89%B9%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>佛蒙特州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>弗吉尼亚州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>华盛顿州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>西維吉尼亞州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>威斯康辛州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%80%80%E4%BF%84%E6%98%8E%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>怀俄明州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
-  </si>
-  <si>
-    <t>聯邦地區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
-  </si>
-  <si>
-    <t>华盛顿哥伦比亚特区</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
-  </si>
-  <si>
-    <t>島嶼地區</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>美屬薩摩亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>關島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>北马里亚纳群岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84</t>
-  </si>
-  <si>
-    <t>波多黎各</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>美屬維爾京群島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B2%9B%E5%B1%BF</t>
-  </si>
-  <si>
-    <t>美国本土外小岛屿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>威克島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
-  </si>
-  <si>
-    <t>约翰斯顿环礁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>中途島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
-  </si>
-  <si>
-    <t>金曼礁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
-  </si>
-  <si>
-    <t>帕邁拉環礁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>賈維斯島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>貝克島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>豪蘭島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E8%90%A8%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>纳瓦萨岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%9C%8D%E5%8A%AA%E5%9F%83%E6%B2%83%E6%B5%85%E6%BB%A9</t>
-  </si>
-  <si>
-    <t>巴霍努埃沃浅滩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%8B%89%E5%B0%BC%E6%8B%89%E6%B5%85%E6%BB%A9</t>
-  </si>
-  <si>
-    <t>塞拉尼拉浅滩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E4%BF%9D%E7%95%99%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>印第安保留地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
-  </si>
-  <si>
-    <t>權威控制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>虚拟国际规范文档</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
-  </si>
-  <si>
-    <t>美国国会图书馆控制号</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
-  </si>
-  <si>
-    <t>國際標準名稱識別碼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>整合规范文档</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -1536,7 +1542,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I200"/>
+  <dimension ref="A1:I202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1967,7 +1973,7 @@
         <v>30</v>
       </c>
       <c r="G15" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H15" t="s">
         <v>4</v>
@@ -2315,7 +2321,7 @@
         <v>54</v>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H27" t="s">
         <v>4</v>
@@ -5186,7 +5192,7 @@
         <v>246</v>
       </c>
       <c r="G126" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H126" t="s">
         <v>4</v>
@@ -5966,7 +5972,7 @@
         <v>295</v>
       </c>
       <c r="F153" t="s">
-        <v>296</v>
+        <v>70</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5992,10 +5998,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>296</v>
+      </c>
+      <c r="F154" t="s">
         <v>297</v>
-      </c>
-      <c r="F154" t="s">
-        <v>298</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6021,10 +6027,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>298</v>
+      </c>
+      <c r="F155" t="s">
         <v>299</v>
-      </c>
-      <c r="F155" t="s">
-        <v>300</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6050,10 +6056,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>300</v>
+      </c>
+      <c r="F156" t="s">
         <v>301</v>
-      </c>
-      <c r="F156" t="s">
-        <v>302</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6079,10 +6085,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>302</v>
+      </c>
+      <c r="F157" t="s">
         <v>303</v>
-      </c>
-      <c r="F157" t="s">
-        <v>304</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6108,10 +6114,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>304</v>
+      </c>
+      <c r="F158" t="s">
         <v>305</v>
-      </c>
-      <c r="F158" t="s">
-        <v>306</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6137,10 +6143,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>306</v>
+      </c>
+      <c r="F159" t="s">
         <v>307</v>
-      </c>
-      <c r="F159" t="s">
-        <v>308</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6166,10 +6172,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>308</v>
+      </c>
+      <c r="F160" t="s">
         <v>309</v>
-      </c>
-      <c r="F160" t="s">
-        <v>310</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6195,10 +6201,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>310</v>
+      </c>
+      <c r="F161" t="s">
         <v>311</v>
-      </c>
-      <c r="F161" t="s">
-        <v>312</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6224,10 +6230,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>312</v>
+      </c>
+      <c r="F162" t="s">
         <v>313</v>
-      </c>
-      <c r="F162" t="s">
-        <v>314</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6253,10 +6259,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>314</v>
+      </c>
+      <c r="F163" t="s">
         <v>315</v>
-      </c>
-      <c r="F163" t="s">
-        <v>316</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6282,10 +6288,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>316</v>
+      </c>
+      <c r="F164" t="s">
         <v>317</v>
-      </c>
-      <c r="F164" t="s">
-        <v>318</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6311,10 +6317,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>318</v>
+      </c>
+      <c r="F165" t="s">
         <v>319</v>
-      </c>
-      <c r="F165" t="s">
-        <v>320</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6340,10 +6346,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>320</v>
+      </c>
+      <c r="F166" t="s">
         <v>321</v>
-      </c>
-      <c r="F166" t="s">
-        <v>322</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6369,10 +6375,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>322</v>
+      </c>
+      <c r="F167" t="s">
         <v>323</v>
-      </c>
-      <c r="F167" t="s">
-        <v>324</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6398,10 +6404,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>324</v>
+      </c>
+      <c r="F168" t="s">
         <v>325</v>
-      </c>
-      <c r="F168" t="s">
-        <v>326</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6427,10 +6433,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>326</v>
+      </c>
+      <c r="F169" t="s">
         <v>327</v>
-      </c>
-      <c r="F169" t="s">
-        <v>328</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6456,10 +6462,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>328</v>
+      </c>
+      <c r="F170" t="s">
         <v>329</v>
-      </c>
-      <c r="F170" t="s">
-        <v>330</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -6485,10 +6491,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>330</v>
+      </c>
+      <c r="F171" t="s">
         <v>331</v>
-      </c>
-      <c r="F171" t="s">
-        <v>332</v>
       </c>
       <c r="G171" t="n">
         <v>2</v>
@@ -6514,10 +6520,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>332</v>
+      </c>
+      <c r="F172" t="s">
         <v>333</v>
-      </c>
-      <c r="F172" t="s">
-        <v>334</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6543,10 +6549,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>334</v>
+      </c>
+      <c r="F173" t="s">
         <v>335</v>
-      </c>
-      <c r="F173" t="s">
-        <v>336</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6572,10 +6578,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>336</v>
+      </c>
+      <c r="F174" t="s">
         <v>337</v>
-      </c>
-      <c r="F174" t="s">
-        <v>338</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6601,10 +6607,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>338</v>
+      </c>
+      <c r="F175" t="s">
         <v>339</v>
-      </c>
-      <c r="F175" t="s">
-        <v>340</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6630,10 +6636,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>340</v>
+      </c>
+      <c r="F176" t="s">
         <v>341</v>
-      </c>
-      <c r="F176" t="s">
-        <v>342</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6659,10 +6665,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>342</v>
+      </c>
+      <c r="F177" t="s">
         <v>343</v>
-      </c>
-      <c r="F177" t="s">
-        <v>344</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6688,10 +6694,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>344</v>
+      </c>
+      <c r="F178" t="s">
         <v>345</v>
-      </c>
-      <c r="F178" t="s">
-        <v>346</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6717,10 +6723,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>346</v>
+      </c>
+      <c r="F179" t="s">
         <v>347</v>
-      </c>
-      <c r="F179" t="s">
-        <v>348</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6746,10 +6752,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>348</v>
+      </c>
+      <c r="F180" t="s">
         <v>349</v>
-      </c>
-      <c r="F180" t="s">
-        <v>350</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6775,10 +6781,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>350</v>
+      </c>
+      <c r="F181" t="s">
         <v>351</v>
-      </c>
-      <c r="F181" t="s">
-        <v>352</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6804,10 +6810,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>352</v>
+      </c>
+      <c r="F182" t="s">
         <v>353</v>
-      </c>
-      <c r="F182" t="s">
-        <v>354</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6833,10 +6839,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>354</v>
+      </c>
+      <c r="F183" t="s">
         <v>355</v>
-      </c>
-      <c r="F183" t="s">
-        <v>356</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6862,10 +6868,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>356</v>
+      </c>
+      <c r="F184" t="s">
         <v>357</v>
-      </c>
-      <c r="F184" t="s">
-        <v>358</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6891,10 +6897,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>358</v>
+      </c>
+      <c r="F185" t="s">
         <v>359</v>
-      </c>
-      <c r="F185" t="s">
-        <v>360</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -6920,10 +6926,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>360</v>
+      </c>
+      <c r="F186" t="s">
         <v>361</v>
-      </c>
-      <c r="F186" t="s">
-        <v>362</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -6949,10 +6955,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>362</v>
+      </c>
+      <c r="F187" t="s">
         <v>363</v>
-      </c>
-      <c r="F187" t="s">
-        <v>364</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -6978,10 +6984,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>364</v>
+      </c>
+      <c r="F188" t="s">
         <v>365</v>
-      </c>
-      <c r="F188" t="s">
-        <v>366</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7007,10 +7013,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>366</v>
+      </c>
+      <c r="F189" t="s">
         <v>367</v>
-      </c>
-      <c r="F189" t="s">
-        <v>368</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7036,10 +7042,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>368</v>
+      </c>
+      <c r="F190" t="s">
         <v>369</v>
-      </c>
-      <c r="F190" t="s">
-        <v>370</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7065,10 +7071,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>370</v>
+      </c>
+      <c r="F191" t="s">
         <v>371</v>
-      </c>
-      <c r="F191" t="s">
-        <v>372</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7094,10 +7100,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>372</v>
+      </c>
+      <c r="F192" t="s">
         <v>373</v>
-      </c>
-      <c r="F192" t="s">
-        <v>374</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7123,10 +7129,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>374</v>
+      </c>
+      <c r="F193" t="s">
         <v>375</v>
-      </c>
-      <c r="F193" t="s">
-        <v>376</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7152,10 +7158,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>376</v>
+      </c>
+      <c r="F194" t="s">
         <v>377</v>
-      </c>
-      <c r="F194" t="s">
-        <v>378</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7181,10 +7187,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>378</v>
+      </c>
+      <c r="F195" t="s">
         <v>379</v>
-      </c>
-      <c r="F195" t="s">
-        <v>380</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7210,10 +7216,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>380</v>
+      </c>
+      <c r="F196" t="s">
         <v>381</v>
-      </c>
-      <c r="F196" t="s">
-        <v>382</v>
       </c>
       <c r="G196" t="n">
         <v>3</v>
@@ -7239,10 +7245,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>382</v>
+      </c>
+      <c r="F197" t="s">
         <v>383</v>
-      </c>
-      <c r="F197" t="s">
-        <v>384</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7268,10 +7274,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>384</v>
+      </c>
+      <c r="F198" t="s">
         <v>385</v>
-      </c>
-      <c r="F198" t="s">
-        <v>386</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7297,10 +7303,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>386</v>
+      </c>
+      <c r="F199" t="s">
         <v>387</v>
-      </c>
-      <c r="F199" t="s">
-        <v>388</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7326,18 +7332,76 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>388</v>
+      </c>
+      <c r="F200" t="s">
         <v>389</v>
       </c>
-      <c r="F200" t="s">
+      <c r="G200" t="n">
+        <v>1</v>
+      </c>
+      <c r="H200" t="s">
+        <v>4</v>
+      </c>
+      <c r="I200" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="s">
+        <v>0</v>
+      </c>
+      <c r="C201" t="s">
+        <v>1</v>
+      </c>
+      <c r="D201" t="n">
+        <v>200</v>
+      </c>
+      <c r="E201" t="s">
         <v>390</v>
       </c>
-      <c r="G200" t="n">
-        <v>1</v>
-      </c>
-      <c r="H200" t="s">
-        <v>4</v>
-      </c>
-      <c r="I200" t="n">
+      <c r="F201" t="s">
+        <v>391</v>
+      </c>
+      <c r="G201" t="n">
+        <v>6</v>
+      </c>
+      <c r="H201" t="s">
+        <v>4</v>
+      </c>
+      <c r="I201" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="s">
+        <v>0</v>
+      </c>
+      <c r="C202" t="s">
+        <v>1</v>
+      </c>
+      <c r="D202" t="n">
+        <v>201</v>
+      </c>
+      <c r="E202" t="s">
+        <v>390</v>
+      </c>
+      <c r="F202" t="s">
+        <v>392</v>
+      </c>
+      <c r="G202" t="n">
+        <v>1</v>
+      </c>
+      <c r="H202" t="s">
+        <v>4</v>
+      </c>
+      <c r="I202" t="n">
         <v>3</v>
       </c>
     </row>
